--- a/data/EcommerceData.xlsx
+++ b/data/EcommerceData.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="10455" windowHeight="6930" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13110" windowHeight="2670" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Valid_AccountCreationDetails" sheetId="3" r:id="rId1"/>
     <sheet name="Invalid_AccountCreationDetails" sheetId="12" r:id="rId2"/>
-    <sheet name="SignInDetails" sheetId="4" r:id="rId3"/>
-    <sheet name="ProductDetails" sheetId="7" r:id="rId4"/>
-    <sheet name="SearchByDept" sheetId="8" r:id="rId5"/>
-    <sheet name="PaymentDetails" sheetId="10" r:id="rId6"/>
-    <sheet name="SearchByBrand" sheetId="9" r:id="rId7"/>
-    <sheet name="FilterOptions" sheetId="11" r:id="rId8"/>
+    <sheet name="Valid_SignInDetails" sheetId="4" r:id="rId3"/>
+    <sheet name="InValid_SignInDetails" sheetId="13" r:id="rId4"/>
+    <sheet name="ProductDetails" sheetId="7" r:id="rId5"/>
+    <sheet name="SearchByDept" sheetId="8" r:id="rId6"/>
+    <sheet name="PaymentDetails" sheetId="10" r:id="rId7"/>
+    <sheet name="SearchByBrand" sheetId="9" r:id="rId8"/>
+    <sheet name="FilterOptions" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>password</t>
   </si>
@@ -152,9 +153,6 @@
     <t>Logitech</t>
   </si>
   <si>
-    <t>/site/samsung-geek-squad-certified-refurbished-galaxy-s21-ultra-5g-512gb-unlocked-phantom-black/6545916.p?skuId=6545916</t>
-  </si>
-  <si>
     <t>samsung mobiles</t>
   </si>
   <si>
@@ -171,6 +169,9 @@
   </si>
   <si>
     <t>1234</t>
+  </si>
+  <si>
+    <t>/site/samsung-pre-owned-galaxy-a14-5g-64gb-unlocked-black/6567177.p?skuId=6567177</t>
   </si>
 </sst>
 </file>
@@ -579,7 +580,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -646,7 +647,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -680,22 +681,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +712,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -720,7 +721,43 @@
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -728,12 +765,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1">
+    <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -741,21 +778,20 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="117.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -776,11 +812,11 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="6" t="s">
         <v>43</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -789,7 +825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -839,7 +875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -937,7 +973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -979,7 +1015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E2"/>
